--- a/resources/templates/reports/sqp_report.xlsx
+++ b/resources/templates/reports/sqp_report.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\blackharold\Desktop\for exp\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\20911894\Desktop\Новая папка\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-13650" yWindow="11540" windowWidth="13280" windowHeight="15500"/>
+    <workbookView xWindow="-13650" yWindow="11535" windowWidth="13275" windowHeight="15495"/>
   </bookViews>
   <sheets>
     <sheet name="SQP" sheetId="2" r:id="rId1"/>
@@ -65,18 +65,24 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF1F497D"/>
+      <color rgb="FF002060"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF8F8F8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="5">
@@ -94,19 +100,6 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
       <top/>
       <bottom style="medium">
         <color indexed="64"/>
@@ -118,10 +111,25 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -129,8 +137,10 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top/>
-      <bottom style="medium">
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -141,16 +151,16 @@
   </cellStyleXfs>
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -159,6 +169,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFF8F8F8"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -436,24 +451,20 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="2" ySplit="1" topLeftCell="C2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F23" sqref="F23"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.6328125" customWidth="1"/>
-    <col min="3" max="3" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.6328125" customWidth="1"/>
-    <col min="5" max="5" width="11.6328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="74.6328125" customWidth="1"/>
-    <col min="7" max="7" width="167.1796875" customWidth="1"/>
+    <col min="1" max="1" width="6.7109375" customWidth="1"/>
+    <col min="2" max="4" width="20.7109375" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1"/>
+    <col min="6" max="6" width="40.7109375" customWidth="1"/>
+    <col min="7" max="7" width="90.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -476,26 +487,26 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="4">
+    <row r="2" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="4">
         <v>2</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="3">
         <v>3</v>
       </c>
-      <c r="D2" s="3">
+      <c r="D2" s="4">
         <v>4</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="3">
         <v>5</v>
       </c>
-      <c r="F2" s="3">
+      <c r="F2" s="4">
         <v>6</v>
       </c>
-      <c r="G2" s="4">
+      <c r="G2" s="3">
         <v>7</v>
       </c>
     </row>
